--- a/DataGenerator/HYBA-2013Spring-Schedule.xlsx
+++ b/DataGenerator/HYBA-2013Spring-Schedule.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="27">
   <si>
     <t>Michelotti-Red</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Location2Team2</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -103,6 +100,12 @@
   </si>
   <si>
     <t>Veterans</t>
+  </si>
+  <si>
+    <t>Scoreboard</t>
+  </si>
+  <si>
+    <t>Location2Scoreboard</t>
   </si>
 </sst>
 </file>
@@ -126,7 +129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,6 +139,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -161,19 +170,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,22 +466,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -483,20 +493,25 @@
         <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>41383</v>
       </c>
@@ -510,20 +525,14 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>41383</v>
       </c>
@@ -537,20 +546,20 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>41383</v>
       </c>
@@ -564,157 +573,162 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>41383</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>0.375</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="J5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>41390</v>
       </c>
       <c r="B6" s="2">
         <v>0.25</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
       </c>
       <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="I6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>41390</v>
       </c>
       <c r="B7" s="2">
         <v>0.29166666666666669</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>41390</v>
       </c>
       <c r="B8" s="2">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>41390</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>0.375</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="J9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="I2:I15">
-    <sortCondition ref="I2:I15"/>
+  <sortState ref="J2:J15">
+    <sortCondition ref="J2:J15"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -736,7 +750,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -744,7 +758,7 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <f>COUNTIF(Games!$C$2:$G$9, Teams!A2)</f>
+        <f>COUNTIF(Games!$C$2:$H$9, Teams!A2)</f>
         <v>2</v>
       </c>
     </row>
@@ -753,8 +767,8 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <f>COUNTIF(Games!$C$2:$G$9, Teams!A3)</f>
-        <v>2</v>
+        <f>COUNTIF(Games!$C$2:$H$9, Teams!A3)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -762,7 +776,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <f>COUNTIF(Games!$C$2:$G$9, Teams!A4)</f>
+        <f>COUNTIF(Games!$C$2:$H$9, Teams!A4)</f>
         <v>2</v>
       </c>
     </row>
@@ -771,7 +785,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <f>COUNTIF(Games!$C$2:$G$9, Teams!A5)</f>
+        <f>COUNTIF(Games!$C$2:$H$9, Teams!A5)</f>
         <v>2</v>
       </c>
     </row>
@@ -780,7 +794,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <f>COUNTIF(Games!$C$2:$G$9, Teams!A6)</f>
+        <f>COUNTIF(Games!$C$2:$H$9, Teams!A6)</f>
         <v>2</v>
       </c>
     </row>
@@ -789,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <f>COUNTIF(Games!$C$2:$G$9, Teams!A7)</f>
+        <f>COUNTIF(Games!$C$2:$H$9, Teams!A7)</f>
         <v>2</v>
       </c>
     </row>
@@ -798,7 +812,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <f>COUNTIF(Games!$C$2:$G$9, Teams!A8)</f>
+        <f>COUNTIF(Games!$C$2:$H$9, Teams!A8)</f>
         <v>2</v>
       </c>
     </row>
@@ -807,7 +821,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <f>COUNTIF(Games!$C$2:$G$9, Teams!A9)</f>
+        <f>COUNTIF(Games!$C$2:$H$9, Teams!A9)</f>
         <v>2</v>
       </c>
     </row>
@@ -816,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <f>COUNTIF(Games!$C$2:$G$9, Teams!A10)</f>
+        <f>COUNTIF(Games!$C$2:$H$9, Teams!A10)</f>
         <v>2</v>
       </c>
     </row>
@@ -825,7 +839,7 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <f>COUNTIF(Games!$C$2:$G$9, Teams!A11)</f>
+        <f>COUNTIF(Games!$C$2:$H$9, Teams!A11)</f>
         <v>2</v>
       </c>
     </row>
@@ -834,7 +848,7 @@
         <v>6</v>
       </c>
       <c r="B12">
-        <f>COUNTIF(Games!$C$2:$G$9, Teams!A12)</f>
+        <f>COUNTIF(Games!$C$2:$H$9, Teams!A12)</f>
         <v>2</v>
       </c>
     </row>
@@ -843,8 +857,8 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <f>COUNTIF(Games!$C$2:$G$9, Teams!A13)</f>
-        <v>2</v>
+        <f>COUNTIF(Games!$C$2:$H$9, Teams!A13)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -852,7 +866,7 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <f>COUNTIF(Games!$C$2:$G$9, Teams!A14)</f>
+        <f>COUNTIF(Games!$C$2:$H$9, Teams!A14)</f>
         <v>2</v>
       </c>
     </row>
@@ -861,7 +875,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <f>COUNTIF(Games!$C$2:$G$9, Teams!A15)</f>
+        <f>COUNTIF(Games!$C$2:$H$9, Teams!A15)</f>
         <v>2</v>
       </c>
     </row>

--- a/DataGenerator/HYBA-2013Spring-Schedule.xlsx
+++ b/DataGenerator/HYBA-2013Spring-Schedule.xlsx
@@ -468,7 +468,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -629,7 +631,7 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
         <v>23</v>
@@ -651,7 +653,7 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>

--- a/DataGenerator/HYBA-2013Spring-Schedule.xlsx
+++ b/DataGenerator/HYBA-2013Spring-Schedule.xlsx
@@ -63,9 +63,6 @@
     <t>Orlosky</t>
   </si>
   <si>
-    <t>Kirkland</t>
-  </si>
-  <si>
     <t>Roberts</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>Location2Scoreboard</t>
+  </si>
+  <si>
+    <t>Cook</t>
   </si>
 </sst>
 </file>
@@ -495,22 +495,22 @@
         <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -527,10 +527,10 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
         <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
       </c>
       <c r="J2" s="4"/>
     </row>
@@ -548,16 +548,16 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" s="4"/>
     </row>
@@ -569,22 +569,22 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" s="4"/>
     </row>
@@ -596,16 +596,16 @@
         <v>0.375</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="E5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>10</v>
@@ -614,7 +614,7 @@
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>11</v>
@@ -628,17 +628,17 @@
         <v>0.25</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="9"/>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" s="4"/>
     </row>
@@ -650,13 +650,13 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>11</v>
@@ -665,7 +665,7 @@
         <v>8</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J7" s="4"/>
     </row>
@@ -680,19 +680,19 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
+      <c r="I8" t="s">
         <v>23</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>24</v>
       </c>
       <c r="J8" s="4"/>
     </row>
@@ -707,10 +707,10 @@
         <v>7</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>7</v>
@@ -722,7 +722,7 @@
         <v>9</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>10</v>
@@ -742,7 +742,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,12 +752,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Games!$C$2:$H$9, Teams!A2)</f>
@@ -766,25 +766,25 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <f>COUNTIF(Games!$C$2:$H$9, Teams!A3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <f>COUNTIF(Games!$C$2:$H$9, Teams!A4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <f>COUNTIF(Games!$C$2:$H$9, Teams!A5)</f>
@@ -820,7 +820,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <f>COUNTIF(Games!$C$2:$H$9, Teams!A9)</f>
@@ -838,7 +838,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <f>COUNTIF(Games!$C$2:$H$9, Teams!A11)</f>
@@ -874,7 +874,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <f>COUNTIF(Games!$C$2:$H$9, Teams!A15)</f>

--- a/DataGenerator/HYBA-2013Spring-Schedule.xlsx
+++ b/DataGenerator/HYBA-2013Spring-Schedule.xlsx
@@ -45,12 +45,6 @@
     <t>Michelotti-Blue</t>
   </si>
   <si>
-    <t>Swartz-Purple</t>
-  </si>
-  <si>
-    <t>Swartz-White</t>
-  </si>
-  <si>
     <t>Jackson</t>
   </si>
   <si>
@@ -106,6 +100,12 @@
   </si>
   <si>
     <t>Cook</t>
+  </si>
+  <si>
+    <t>Swartz-Blue</t>
+  </si>
+  <si>
+    <t>Swartz-Gray</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,22 +495,22 @@
         <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -524,13 +524,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J2" s="4"/>
     </row>
@@ -545,19 +545,19 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J3" s="4"/>
     </row>
@@ -569,22 +569,22 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J4" s="4"/>
     </row>
@@ -596,28 +596,28 @@
         <v>0.375</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -628,17 +628,17 @@
         <v>0.25</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G6" s="9"/>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J6" s="4"/>
     </row>
@@ -650,22 +650,22 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J7" s="4"/>
     </row>
@@ -677,22 +677,22 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="H8" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J8" s="4"/>
     </row>
@@ -704,28 +704,28 @@
         <v>0.375</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>9</v>
-      </c>
       <c r="I9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -742,7 +742,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,12 +752,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Games!$C$2:$H$9, Teams!A2)</f>
@@ -766,7 +766,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <f>COUNTIF(Games!$C$2:$H$9, Teams!A3)</f>
@@ -775,7 +775,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <f>COUNTIF(Games!$C$2:$H$9, Teams!A4)</f>
@@ -784,7 +784,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <f>COUNTIF(Games!$C$2:$H$9, Teams!A5)</f>
@@ -811,7 +811,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <f>COUNTIF(Games!$C$2:$H$9, Teams!A8)</f>
@@ -820,7 +820,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <f>COUNTIF(Games!$C$2:$H$9, Teams!A9)</f>
@@ -829,7 +829,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <f>COUNTIF(Games!$C$2:$H$9, Teams!A10)</f>
@@ -838,7 +838,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <f>COUNTIF(Games!$C$2:$H$9, Teams!A11)</f>
@@ -847,25 +847,25 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <f>COUNTIF(Games!$C$2:$H$9, Teams!A12)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <f>COUNTIF(Games!$C$2:$H$9, Teams!A13)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14">
         <f>COUNTIF(Games!$C$2:$H$9, Teams!A14)</f>
@@ -874,7 +874,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <f>COUNTIF(Games!$C$2:$H$9, Teams!A15)</f>

--- a/DataGenerator/HYBA-2013Spring-Schedule.xlsx
+++ b/DataGenerator/HYBA-2013Spring-Schedule.xlsx
@@ -14,7 +14,13 @@
   <sheets>
     <sheet name="Games" sheetId="1" r:id="rId1"/>
     <sheet name="Teams" sheetId="3" r:id="rId2"/>
+    <sheet name="GamesWorksheet" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="teamsloc1">GamesWorksheet!$C$2:$D$37</definedName>
+    <definedName name="teamsloc2">GamesWorksheet!$G$2:$H$37</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="39">
   <si>
     <t>Michelotti-Red</t>
   </si>
@@ -106,13 +112,49 @@
   </si>
   <si>
     <t>Swartz-Gray</t>
+  </si>
+  <si>
+    <t>Patuxent Valley MS</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Vipond</t>
+  </si>
+  <si>
+    <t>Team 3</t>
+  </si>
+  <si>
+    <t>Team 6</t>
+  </si>
+  <si>
+    <t>Team 5</t>
+  </si>
+  <si>
+    <t>Team 4</t>
+  </si>
+  <si>
+    <t>Team 8</t>
+  </si>
+  <si>
+    <t>Team 1</t>
+  </si>
+  <si>
+    <t>Team 7</t>
+  </si>
+  <si>
+    <t>Team 2</t>
+  </si>
+  <si>
+    <t>Patuxent-Valley-MS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,8 +170,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,8 +203,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -166,18 +251,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -186,6 +349,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,34 +701,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -517,7 +736,7 @@
       <c r="A2" s="1">
         <v>41383</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="59">
         <v>0.25</v>
       </c>
       <c r="C2" t="s">
@@ -532,13 +751,13 @@
       <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>41383</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="59">
         <v>0.29166666666666669</v>
       </c>
       <c r="C3" t="s">
@@ -559,13 +778,13 @@
       <c r="I3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>41383</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="59">
         <v>0.33333333333333331</v>
       </c>
       <c r="C4" t="s">
@@ -586,37 +805,37 @@
       <c r="I4" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>41383</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="60">
         <v>0.375</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="G5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -624,10 +843,10 @@
       <c r="A6" s="1">
         <v>41390</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="59">
         <v>0.25</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
@@ -636,20 +855,20 @@
       <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="7"/>
       <c r="I6" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>41390</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="59">
         <v>0.29166666666666669</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
@@ -658,7 +877,7 @@
       <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H7" t="s">
@@ -667,16 +886,16 @@
       <c r="I7" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>41390</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="59">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D8" t="s">
@@ -685,48 +904,802 @@
       <c r="E8" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="I8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>41390</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="60">
         <v>0.375</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="10" t="s">
+      <c r="G9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="I9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>41397</v>
+      </c>
+      <c r="B10" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>41397</v>
+      </c>
+      <c r="B11" s="19">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="22"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>41397</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>41397</v>
+      </c>
+      <c r="B13" s="20">
+        <v>0.375</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>41404</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="22"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>41404</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="22"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>41404</v>
+      </c>
+      <c r="B16" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="22"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>41404</v>
+      </c>
+      <c r="B17" s="20">
+        <v>0.375</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>41411</v>
+      </c>
+      <c r="B18" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="22"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>41411</v>
+      </c>
+      <c r="B19" s="19">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="22"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>41411</v>
+      </c>
+      <c r="B20" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>41411</v>
+      </c>
+      <c r="B21" s="20">
+        <v>0.375</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>41418</v>
+      </c>
+      <c r="B22" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="22"/>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="22"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>41418</v>
+      </c>
+      <c r="B23" s="19">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="22"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>41418</v>
+      </c>
+      <c r="B24" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="22"/>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>41418</v>
+      </c>
+      <c r="B25" s="20">
+        <v>0.375</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>41425</v>
+      </c>
+      <c r="B26" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="37"/>
+      <c r="F26" s="38"/>
+      <c r="I26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="22"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>41425</v>
+      </c>
+      <c r="B27" s="19">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="37"/>
+      <c r="F27" s="38"/>
+      <c r="G27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="22"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>41425</v>
+      </c>
+      <c r="B28" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="37"/>
+      <c r="F28" s="38"/>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="22"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>41425</v>
+      </c>
+      <c r="B29" s="20">
+        <v>0.375</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="39"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>41432</v>
+      </c>
+      <c r="B30" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="22"/>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="22"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>41432</v>
+      </c>
+      <c r="B31" s="19">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="22"/>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="22"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>41432</v>
+      </c>
+      <c r="B32" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="22"/>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="22"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <v>41432</v>
+      </c>
+      <c r="B33" s="20">
+        <v>0.375</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>41439</v>
+      </c>
+      <c r="B34" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="22"/>
+      <c r="G34" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="37"/>
+      <c r="J34" s="38"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>41439</v>
+      </c>
+      <c r="B35" s="19">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="22"/>
+      <c r="G35" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="37"/>
+      <c r="J35" s="38"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>41439</v>
+      </c>
+      <c r="B36" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="22"/>
+      <c r="G36" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="37"/>
+      <c r="J36" s="38"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
+        <v>41439</v>
+      </c>
+      <c r="B37" s="20">
+        <v>0.375</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="24"/>
+      <c r="G37" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" s="39"/>
+      <c r="J37" s="40"/>
     </row>
   </sheetData>
   <sortState ref="J2:J15">
@@ -739,10 +1712,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,135 +1723,1562 @@
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Games!$C$2:$H$9, Teams!A2)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="C2">
+        <f>COUNTIF(teamsloc1, Teams!$A2) + COUNTIF(teamsloc2, Teams!$A2)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="15">
         <f>COUNTIF(Games!$C$2:$H$9, Teams!A3)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="C3" s="15">
+        <f>COUNTIF(teamsloc1, Teams!$A3) + COUNTIF(teamsloc2, Teams!$A3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B4">
         <f>COUNTIF(Games!$C$2:$H$9, Teams!A4)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="C4">
+        <f>COUNTIF(teamsloc1, Teams!$A4) + COUNTIF(teamsloc2, Teams!$A4)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5">
         <f>COUNTIF(Games!$C$2:$H$9, Teams!A5)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="C5">
+        <f>COUNTIF(teamsloc1, Teams!$A5) + COUNTIF(teamsloc2, Teams!$A5)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <f>COUNTIF(Games!$C$2:$H$9, Teams!A6)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="C6">
+        <f>COUNTIF(teamsloc1, Teams!$A6) + COUNTIF(teamsloc2, Teams!$A6)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B7">
         <f>COUNTIF(Games!$C$2:$H$9, Teams!A7)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="C7">
+        <f>COUNTIF(teamsloc1, Teams!$A7) + COUNTIF(teamsloc2, Teams!$A7)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <f>COUNTIF(Games!$C$2:$H$9, Teams!A8)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="C8">
+        <f>COUNTIF(teamsloc1, Teams!$A8) + COUNTIF(teamsloc2, Teams!$A8)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B9">
         <f>COUNTIF(Games!$C$2:$H$9, Teams!A9)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="C9">
+        <f>COUNTIF(teamsloc1, Teams!$A9) + COUNTIF(teamsloc2, Teams!$A9)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10">
         <f>COUNTIF(Games!$C$2:$H$9, Teams!A10)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="C10">
+        <f>COUNTIF(teamsloc1, Teams!$A10) + COUNTIF(teamsloc2, Teams!$A10)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <f>COUNTIF(Games!$C$2:$H$9, Teams!A11)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="C11">
+        <f>COUNTIF(teamsloc1, Teams!$A11) + COUNTIF(teamsloc2, Teams!$A11)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B12">
         <f>COUNTIF(Games!$C$2:$H$9, Teams!A12)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="C12">
+        <f>COUNTIF(teamsloc1, Teams!$A12) + COUNTIF(teamsloc2, Teams!$A12)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B13">
         <f>COUNTIF(Games!$C$2:$H$9, Teams!A13)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="C13">
+        <f>COUNTIF(teamsloc1, Teams!$A13) + COUNTIF(teamsloc2, Teams!$A13)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B14">
         <f>COUNTIF(Games!$C$2:$H$9, Teams!A14)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="C14">
+        <f>COUNTIF(teamsloc1, Teams!$A14) + COUNTIF(teamsloc2, Teams!$A14)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B15">
         <f>COUNTIF(Games!$C$2:$H$9, Teams!A15)</f>
         <v>2</v>
+      </c>
+      <c r="C15">
+        <f>COUNTIF(teamsloc1, Teams!$A15) + COUNTIF(teamsloc2, Teams!$A15)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <f>COUNTIF(teamsloc1, Teams!$A16) + COUNTIF(teamsloc2, Teams!$A16)</f>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:J37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="21"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>41383</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>41383</v>
+      </c>
+      <c r="B3" s="19">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="25"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>41383</v>
+      </c>
+      <c r="B4" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>41383</v>
+      </c>
+      <c r="B5" s="20">
+        <v>0.375</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>41390</v>
+      </c>
+      <c r="B6" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="7"/>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="25"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>41390</v>
+      </c>
+      <c r="B7" s="19">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="25"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>41390</v>
+      </c>
+      <c r="B8" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="25"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>41390</v>
+      </c>
+      <c r="B9" s="20">
+        <v>0.375</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>41397</v>
+      </c>
+      <c r="B10" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>41397</v>
+      </c>
+      <c r="B11" s="19">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="22"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>41397</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>41397</v>
+      </c>
+      <c r="B13" s="20">
+        <v>0.375</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>41404</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="22"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>41404</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="22"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>41404</v>
+      </c>
+      <c r="B16" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="22"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>41404</v>
+      </c>
+      <c r="B17" s="20">
+        <v>0.375</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>41411</v>
+      </c>
+      <c r="B18" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="22"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>41411</v>
+      </c>
+      <c r="B19" s="19">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="22"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>41411</v>
+      </c>
+      <c r="B20" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>41411</v>
+      </c>
+      <c r="B21" s="20">
+        <v>0.375</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>41418</v>
+      </c>
+      <c r="B22" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="22"/>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="22"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>41418</v>
+      </c>
+      <c r="B23" s="19">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="22"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>41418</v>
+      </c>
+      <c r="B24" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="22"/>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>41418</v>
+      </c>
+      <c r="B25" s="20">
+        <v>0.375</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>41425</v>
+      </c>
+      <c r="B26" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="37"/>
+      <c r="F26" s="38"/>
+      <c r="I26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="22"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>41425</v>
+      </c>
+      <c r="B27" s="19">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="37"/>
+      <c r="F27" s="38"/>
+      <c r="G27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="22"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>41425</v>
+      </c>
+      <c r="B28" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="37"/>
+      <c r="F28" s="38"/>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="22"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>41425</v>
+      </c>
+      <c r="B29" s="20">
+        <v>0.375</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="39"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>41432</v>
+      </c>
+      <c r="B30" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="22"/>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="22"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>41432</v>
+      </c>
+      <c r="B31" s="19">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="22"/>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="22"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>41432</v>
+      </c>
+      <c r="B32" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="22"/>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="22"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <v>41432</v>
+      </c>
+      <c r="B33" s="20">
+        <v>0.375</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>41439</v>
+      </c>
+      <c r="B34" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="22"/>
+      <c r="G34" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="37"/>
+      <c r="J34" s="38"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>41439</v>
+      </c>
+      <c r="B35" s="19">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="22"/>
+      <c r="G35" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="37"/>
+      <c r="J35" s="38"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>41439</v>
+      </c>
+      <c r="B36" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="22"/>
+      <c r="G36" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="37"/>
+      <c r="J36" s="38"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
+        <v>41439</v>
+      </c>
+      <c r="B37" s="20">
+        <v>0.375</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="24"/>
+      <c r="G37" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" s="39"/>
+      <c r="J37" s="40"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="5">
+        <v>8</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="5">
+        <v>12</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="5">
+        <v>16</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="12">
+        <v>20</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>22</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="5">
+        <v>24</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="46" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/DataGenerator/HYBA-2013Spring-Schedule.xlsx
+++ b/DataGenerator/HYBA-2013Spring-Schedule.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="54">
   <si>
     <t>Michelotti-Red</t>
   </si>
@@ -148,6 +148,51 @@
   </si>
   <si>
     <t>Patuxent-Valley-MS</t>
+  </si>
+  <si>
+    <t>6v1</t>
+  </si>
+  <si>
+    <t>3v4</t>
+  </si>
+  <si>
+    <t>5v2</t>
+  </si>
+  <si>
+    <t>2v6</t>
+  </si>
+  <si>
+    <t>1v3</t>
+  </si>
+  <si>
+    <t>4v5</t>
+  </si>
+  <si>
+    <t>2v4</t>
+  </si>
+  <si>
+    <t>6v3</t>
+  </si>
+  <si>
+    <t>5v1</t>
+  </si>
+  <si>
+    <t>3v5</t>
+  </si>
+  <si>
+    <t>4v6</t>
+  </si>
+  <si>
+    <t>2v1</t>
+  </si>
+  <si>
+    <t>4v1</t>
+  </si>
+  <si>
+    <t>6v5</t>
+  </si>
+  <si>
+    <t>2v3</t>
   </si>
 </sst>
 </file>
@@ -184,7 +229,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +275,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -346,7 +397,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -405,6 +455,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,11 +755,11 @@
     <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="57" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -716,7 +771,7 @@
       <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="57" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -728,15 +783,24 @@
       <c r="I1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="57" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O1">
+        <v>1</v>
+      </c>
+      <c r="P1" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>41383</v>
       </c>
-      <c r="B2" s="59">
+      <c r="B2" s="58">
         <v>0.25</v>
       </c>
       <c r="C2" t="s">
@@ -748,16 +812,26 @@
       <c r="E2" t="s">
         <v>20</v>
       </c>
+      <c r="F2" s="21"/>
       <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J2" s="24"/>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>41383</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="58">
         <v>0.29166666666666669</v>
       </c>
       <c r="C3" t="s">
@@ -769,6 +843,7 @@
       <c r="E3" t="s">
         <v>20</v>
       </c>
+      <c r="F3" s="21"/>
       <c r="G3" t="s">
         <v>26</v>
       </c>
@@ -778,13 +853,22 @@
       <c r="I3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3" s="24"/>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>41383</v>
       </c>
-      <c r="B4" s="59">
+      <c r="B4" s="58">
         <v>0.33333333333333331</v>
       </c>
       <c r="C4" t="s">
@@ -796,6 +880,7 @@
       <c r="E4" t="s">
         <v>20</v>
       </c>
+      <c r="F4" s="21"/>
       <c r="G4" t="s">
         <v>25</v>
       </c>
@@ -805,13 +890,22 @@
       <c r="I4" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4" s="24"/>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>41383</v>
       </c>
-      <c r="B5" s="60">
+      <c r="B5" s="59">
         <v>0.375</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -823,7 +917,7 @@
       <c r="E5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="22" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -832,21 +926,30 @@
       <c r="H5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="9" t="s">
+      <c r="I5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="25" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>41390</v>
       </c>
-      <c r="B6" s="59">
+      <c r="B6" s="58">
         <v>0.25</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
@@ -855,17 +958,27 @@
       <c r="E6" t="s">
         <v>20</v>
       </c>
+      <c r="F6" s="21"/>
       <c r="G6" s="7"/>
       <c r="I6" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" s="24"/>
+      <c r="O6">
+        <v>6</v>
+      </c>
+      <c r="P6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>41390</v>
       </c>
-      <c r="B7" s="59">
+      <c r="B7" s="58">
         <v>0.29166666666666669</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -877,7 +990,8 @@
       <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="21"/>
+      <c r="G7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H7" t="s">
@@ -886,13 +1000,16 @@
       <c r="I7" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" s="24"/>
+      <c r="Q7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>41390</v>
       </c>
-      <c r="B8" s="59">
+      <c r="B8" s="58">
         <v>0.33333333333333331</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -904,6 +1021,7 @@
       <c r="E8" t="s">
         <v>20</v>
       </c>
+      <c r="F8" s="21"/>
       <c r="G8" s="7" t="s">
         <v>12</v>
       </c>
@@ -913,13 +1031,16 @@
       <c r="I8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8" s="24"/>
+      <c r="Q8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>41390</v>
       </c>
-      <c r="B9" s="60">
+      <c r="B9" s="59">
         <v>0.375</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -931,7 +1052,7 @@
       <c r="E9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="23" t="s">
         <v>25</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -943,219 +1064,268 @@
       <c r="I9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="26" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="Q9" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
         <v>41397</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <v>0.25</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="21"/>
       <c r="I10" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="J10" s="21"/>
+      <c r="Q10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
         <v>41397</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="18">
         <v>0.29166666666666669</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="34" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="7" t="s">
+      <c r="F11" s="21"/>
+      <c r="G11" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" t="s">
         <v>13</v>
       </c>
       <c r="I11" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="J11" s="21"/>
+      <c r="L11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
         <v>41397</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <v>0.33333333333333331</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="34" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="51" t="s">
+      <c r="F12" s="21"/>
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>12</v>
+      <c r="H12" t="s">
+        <v>11</v>
       </c>
       <c r="I12" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="J12" s="21"/>
+      <c r="L12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="60" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
         <v>41397</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="19">
         <v>0.375</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="33" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="52" t="s">
+      <c r="G13" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>41404</v>
+      </c>
+      <c r="B14" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="Q14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>41404</v>
+      </c>
+      <c r="B15" s="18">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="21"/>
+      <c r="L15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>41404</v>
+      </c>
+      <c r="B16" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="21"/>
+      <c r="L16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
         <v>41404</v>
       </c>
-      <c r="B14" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="I14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="22"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <v>41404</v>
-      </c>
-      <c r="B15" s="19">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="22"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>41404</v>
-      </c>
-      <c r="B16" s="19">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="53" t="s">
+      <c r="B17" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="G17" s="64" t="s">
         <v>14</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="22"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
-        <v>41404</v>
-      </c>
-      <c r="B17" s="20">
-        <v>0.375</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>12</v>
@@ -1163,93 +1333,111 @@
       <c r="I17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="J17" s="23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+      <c r="L17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
         <v>41411</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <v>0.25</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E18" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="22"/>
+      <c r="F18" s="21"/>
       <c r="I18" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="22"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
         <v>41411</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="18">
         <v>0.29166666666666669</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="34" t="s">
         <v>6</v>
       </c>
       <c r="E19" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="43" t="s">
-        <v>11</v>
+      <c r="F19" s="21"/>
+      <c r="G19" t="s">
+        <v>12</v>
       </c>
       <c r="H19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="21"/>
+      <c r="L19" t="s">
         <v>12</v>
       </c>
-      <c r="I19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="22"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
+      <c r="M19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
         <v>41411</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="18">
         <v>0.33333333333333331</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="34" t="s">
         <v>25</v>
       </c>
       <c r="E20" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="22"/>
+      <c r="F20" s="21"/>
       <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="53" t="s">
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="21"/>
+      <c r="L20" t="s">
         <v>14</v>
       </c>
-      <c r="I20" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="22"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
+      <c r="M20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
         <v>41411</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="19">
         <v>0.375</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1261,237 +1449,275 @@
       <c r="E21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="F21" s="23"/>
+      <c r="G21" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="I21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="24" t="s">
+      <c r="J21" s="23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
+      <c r="L21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
         <v>41418</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="18">
         <v>0.25</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="22"/>
+      <c r="F22" s="21"/>
       <c r="I22" t="s">
         <v>21</v>
       </c>
-      <c r="J22" s="22"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
         <v>41418</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="18">
         <v>0.29166666666666669</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="34" t="s">
         <v>10</v>
       </c>
       <c r="E23" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="53" t="s">
+      <c r="F23" s="21"/>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="H23" t="s">
-        <v>12</v>
-      </c>
       <c r="I23" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="22"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
+      <c r="J23" s="21"/>
+      <c r="L23" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" s="63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
         <v>41418</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="18">
         <v>0.33333333333333331</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="34" t="s">
         <v>29</v>
       </c>
       <c r="E24" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="21"/>
       <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
         <v>11</v>
       </c>
-      <c r="H24" t="s">
-        <v>13</v>
-      </c>
       <c r="I24" t="s">
         <v>21</v>
       </c>
-      <c r="J24" s="22"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
+      <c r="J24" s="21"/>
+      <c r="L24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
         <v>41418</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="19">
         <v>0.375</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="56" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="5" t="s">
+      <c r="F25" s="23"/>
+      <c r="G25" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="52" t="s">
+      <c r="I25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="24" t="s">
+      <c r="L25" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
+      <c r="M25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
         <v>41425</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="18">
         <v>0.25</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="38"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="37"/>
       <c r="I26" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="22"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
         <v>41425</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="18">
         <v>0.29166666666666669</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="38"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="37"/>
       <c r="G27" t="s">
         <v>9</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" t="s">
         <v>14</v>
       </c>
       <c r="I27" t="s">
         <v>21</v>
       </c>
-      <c r="J27" s="22"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
+      <c r="J27" s="21"/>
+      <c r="L27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
         <v>41425</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="18">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="38"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="37"/>
       <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="21"/>
+      <c r="L28" t="s">
+        <v>13</v>
+      </c>
+      <c r="M28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>41425</v>
+      </c>
+      <c r="B29" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="38"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="22"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
-        <v>41425</v>
-      </c>
-      <c r="B29" s="20">
-        <v>0.375</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="I29" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
+      <c r="J29" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
         <v>41432</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="18">
         <v>0.25</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -1503,17 +1729,17 @@
       <c r="E30" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="22"/>
+      <c r="F30" s="21"/>
       <c r="I30" t="s">
         <v>21</v>
       </c>
-      <c r="J30" s="22"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
         <v>41432</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="18">
         <v>0.29166666666666669</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -1525,26 +1751,32 @@
       <c r="E31" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="22"/>
+      <c r="F31" s="21"/>
       <c r="G31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" t="s">
         <v>7</v>
       </c>
-      <c r="H31" t="s">
-        <v>13</v>
-      </c>
       <c r="I31" t="s">
         <v>21</v>
       </c>
-      <c r="J31" s="22"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
+      <c r="J31" s="21"/>
+      <c r="L31" t="s">
+        <v>9</v>
+      </c>
+      <c r="M31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
         <v>41432</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="18">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="40" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -1553,26 +1785,32 @@
       <c r="E32" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="22"/>
+      <c r="F32" s="21"/>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I32" t="s">
         <v>21</v>
       </c>
-      <c r="J32" s="22"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
+      <c r="J32" s="21"/>
+      <c r="L32" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
         <v>41432</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="19">
         <v>0.375</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="33" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="8" t="s">
@@ -1581,27 +1819,31 @@
       <c r="E33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>9</v>
+      <c r="F33" s="23"/>
+      <c r="G33" s="64" t="s">
+        <v>14</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J33" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
+      <c r="J33" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
         <v>41439</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="18">
         <v>0.25</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -1613,21 +1855,21 @@
       <c r="E34" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="37" t="s">
+      <c r="F34" s="21"/>
+      <c r="G34" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="37" t="s">
+      <c r="H34" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="I34" s="37"/>
-      <c r="J34" s="38"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
+      <c r="I34" s="36"/>
+      <c r="J34" s="37"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
         <v>41439</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="18">
         <v>0.29166666666666669</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -1639,21 +1881,21 @@
       <c r="E35" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="37" t="s">
+      <c r="F35" s="21"/>
+      <c r="G35" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="H35" s="37" t="s">
+      <c r="H35" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="I35" s="37"/>
-      <c r="J35" s="38"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
+      <c r="I35" s="36"/>
+      <c r="J35" s="37"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
         <v>41439</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="18">
         <v>0.33333333333333331</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -1665,21 +1907,21 @@
       <c r="E36" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="22"/>
-      <c r="G36" s="37" t="s">
+      <c r="F36" s="21"/>
+      <c r="G36" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="H36" s="37" t="s">
+      <c r="H36" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="I36" s="37"/>
-      <c r="J36" s="38"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="14">
+      <c r="I36" s="36"/>
+      <c r="J36" s="37"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
         <v>41439</v>
       </c>
-      <c r="B37" s="20">
+      <c r="B37" s="19">
         <v>0.375</v>
       </c>
       <c r="C37" s="8" t="s">
@@ -1691,15 +1933,17 @@
       <c r="E37" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="24"/>
-      <c r="G37" s="39" t="s">
+      <c r="F37" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="H37" s="39" t="s">
+      <c r="H37" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="I37" s="39"/>
-      <c r="J37" s="40"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="39"/>
     </row>
   </sheetData>
   <sortState ref="J2:J15">
@@ -1742,14 +1986,14 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <f>COUNTIF(Games!$C$2:$H$9, Teams!A3)</f>
         <v>2</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <f>COUNTIF(teamsloc1, Teams!$A3) + COUNTIF(teamsloc2, Teams!$A3)</f>
         <v>2</v>
       </c>
@@ -1935,7 +2179,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="21"/>
+    <col min="2" max="2" width="9.140625" style="20"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
@@ -1944,45 +2188,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>41383</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="18">
         <v>0.25</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
@@ -1991,20 +2235,20 @@
       <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="22"/>
+      <c r="F2" s="21"/>
       <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="25"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>41383</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <v>0.29166666666666669</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
@@ -2013,26 +2257,26 @@
       <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="22"/>
+      <c r="F3" s="21"/>
       <c r="G3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="28" t="s">
         <v>24</v>
       </c>
       <c r="I3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="25"/>
+      <c r="J3" s="24"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>41383</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
@@ -2041,8 +2285,8 @@
       <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="29" t="s">
+      <c r="F4" s="21"/>
+      <c r="G4" s="28" t="s">
         <v>25</v>
       </c>
       <c r="H4" t="s">
@@ -2051,28 +2295,28 @@
       <c r="I4" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="25"/>
+      <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="13">
         <v>41383</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="19">
         <v>0.375</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="29" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="30" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -2081,79 +2325,79 @@
       <c r="I5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>41390</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>0.25</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="22"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="7"/>
       <c r="I6" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="25"/>
+      <c r="J6" s="24"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>41390</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>0.29166666666666669</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="28" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="21"/>
+      <c r="G7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="28" t="s">
         <v>6</v>
       </c>
       <c r="I7" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="25"/>
+      <c r="J7" s="24"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>41390</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <v>0.33333333333333331</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="32" t="s">
+      <c r="F8" s="21"/>
+      <c r="G8" s="31" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="7" t="s">
@@ -2162,108 +2406,108 @@
       <c r="I8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="25"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>41390</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <v>0.375</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="23" t="s">
         <v>25</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="32" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>41397</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <v>0.25</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="21"/>
       <c r="I10" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="22"/>
+      <c r="J10" s="21"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="12">
         <v>41397</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="18">
         <v>0.29166666666666669</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="34" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="34" t="s">
         <v>13</v>
       </c>
       <c r="I11" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="22"/>
+      <c r="J11" s="21"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="A12" s="12">
         <v>41397</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <v>0.33333333333333331</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="34" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="51" t="s">
+      <c r="F12" s="21"/>
+      <c r="G12" s="50" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="7" t="s">
@@ -2272,16 +2516,16 @@
       <c r="I12" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="22"/>
+      <c r="J12" s="21"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>41397</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="19">
         <v>0.375</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="33" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -2290,10 +2534,10 @@
       <c r="E13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="52" t="s">
+      <c r="G13" s="51" t="s">
         <v>9</v>
       </c>
       <c r="H13" s="5" t="s">
@@ -2302,49 +2546,49 @@
       <c r="I13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="24" t="s">
+      <c r="J13" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="A14" s="12">
         <v>41404</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <v>0.25</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="54" t="s">
         <v>6</v>
       </c>
       <c r="E14" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="22"/>
+      <c r="F14" s="21"/>
       <c r="I14" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="22"/>
+      <c r="J14" s="21"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="A15" s="12">
         <v>41404</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <v>0.29166666666666669</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="34" t="s">
         <v>29</v>
       </c>
       <c r="E15" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="22"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="7" t="s">
         <v>9</v>
       </c>
@@ -2354,26 +2598,26 @@
       <c r="I15" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="22"/>
+      <c r="J15" s="21"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="A16" s="12">
         <v>41404</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="18">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="53" t="s">
+      <c r="E16" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="52" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="7" t="s">
@@ -2382,25 +2626,25 @@
       <c r="I16" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="22"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
+      <c r="A17" s="13">
         <v>41404</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="19">
         <v>0.375</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="55" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="23" t="s">
         <v>8</v>
       </c>
       <c r="G17" s="5" t="s">
@@ -2412,50 +2656,50 @@
       <c r="I17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="J17" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+      <c r="A18" s="12">
         <v>41411</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <v>0.25</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E18" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="22"/>
+      <c r="F18" s="21"/>
       <c r="I18" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="22"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
+      <c r="A19" s="12">
         <v>41411</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="18">
         <v>0.29166666666666669</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="34" t="s">
         <v>6</v>
       </c>
       <c r="E19" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="43" t="s">
+      <c r="F19" s="21"/>
+      <c r="G19" s="42" t="s">
         <v>11</v>
       </c>
       <c r="H19" t="s">
@@ -2464,41 +2708,41 @@
       <c r="I19" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="22"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
+      <c r="A20" s="12">
         <v>41411</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="18">
         <v>0.33333333333333331</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="34" t="s">
         <v>25</v>
       </c>
       <c r="E20" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="22"/>
+      <c r="F20" s="21"/>
       <c r="G20" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="53" t="s">
+      <c r="H20" s="52" t="s">
         <v>14</v>
       </c>
       <c r="I20" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="22"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
+      <c r="A21" s="13">
         <v>41411</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="19">
         <v>0.375</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -2510,7 +2754,7 @@
       <c r="E21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="23" t="s">
         <v>0</v>
       </c>
       <c r="G21" s="5" t="s">
@@ -2522,50 +2766,50 @@
       <c r="I21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="24" t="s">
+      <c r="J21" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
+      <c r="A22" s="12">
         <v>41418</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="18">
         <v>0.25</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="22"/>
+      <c r="F22" s="21"/>
       <c r="I22" t="s">
         <v>21</v>
       </c>
-      <c r="J22" s="22"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
+      <c r="A23" s="12">
         <v>41418</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="18">
         <v>0.29166666666666669</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="34" t="s">
         <v>10</v>
       </c>
       <c r="E23" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="53" t="s">
+      <c r="F23" s="21"/>
+      <c r="G23" s="52" t="s">
         <v>9</v>
       </c>
       <c r="H23" t="s">
@@ -2574,25 +2818,25 @@
       <c r="I23" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="22"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
+      <c r="A24" s="12">
         <v>41418</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="18">
         <v>0.33333333333333331</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="34" t="s">
         <v>29</v>
       </c>
       <c r="E24" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="21"/>
       <c r="G24" t="s">
         <v>11</v>
       </c>
@@ -2602,75 +2846,75 @@
       <c r="I24" t="s">
         <v>21</v>
       </c>
-      <c r="J24" s="22"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
+      <c r="A25" s="13">
         <v>41418</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="19">
         <v>0.375</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="56" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="23" t="s">
         <v>25</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="52" t="s">
+      <c r="H25" s="51" t="s">
         <v>14</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="24" t="s">
+      <c r="J25" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
+      <c r="A26" s="12">
         <v>41425</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="18">
         <v>0.25</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="38"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="37"/>
       <c r="I26" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="22"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
+      <c r="A27" s="12">
         <v>41425</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="18">
         <v>0.29166666666666669</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="38"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="37"/>
       <c r="G27" t="s">
         <v>9</v>
       </c>
@@ -2680,23 +2924,23 @@
       <c r="I27" t="s">
         <v>21</v>
       </c>
-      <c r="J27" s="22"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
+      <c r="A28" s="12">
         <v>41425</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="18">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="38"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="37"/>
       <c r="G28" t="s">
         <v>7</v>
       </c>
@@ -2706,23 +2950,23 @@
       <c r="I28" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="22"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
+      <c r="A29" s="13">
         <v>41425</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B29" s="19">
         <v>0.375</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="40"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="39"/>
       <c r="G29" s="5" t="s">
         <v>11</v>
       </c>
@@ -2732,15 +2976,15 @@
       <c r="I29" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="24" t="s">
+      <c r="J29" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
+      <c r="A30" s="12">
         <v>41432</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="18">
         <v>0.25</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -2752,17 +2996,17 @@
       <c r="E30" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="22"/>
+      <c r="F30" s="21"/>
       <c r="I30" t="s">
         <v>21</v>
       </c>
-      <c r="J30" s="22"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
+      <c r="A31" s="12">
         <v>41432</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="18">
         <v>0.29166666666666669</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -2774,7 +3018,7 @@
       <c r="E31" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="22"/>
+      <c r="F31" s="21"/>
       <c r="G31" t="s">
         <v>7</v>
       </c>
@@ -2784,16 +3028,16 @@
       <c r="I31" t="s">
         <v>21</v>
       </c>
-      <c r="J31" s="22"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
+      <c r="A32" s="12">
         <v>41432</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="18">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="40" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -2802,7 +3046,7 @@
       <c r="E32" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="22"/>
+      <c r="F32" s="21"/>
       <c r="G32" t="s">
         <v>14</v>
       </c>
@@ -2812,16 +3056,16 @@
       <c r="I32" t="s">
         <v>21</v>
       </c>
-      <c r="J32" s="22"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
+      <c r="A33" s="13">
         <v>41432</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="19">
         <v>0.375</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="33" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="8" t="s">
@@ -2830,7 +3074,7 @@
       <c r="E33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="23" t="s">
         <v>6</v>
       </c>
       <c r="G33" s="5" t="s">
@@ -2842,15 +3086,15 @@
       <c r="I33" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J33" s="24" t="s">
+      <c r="J33" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
+      <c r="A34" s="12">
         <v>41439</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="18">
         <v>0.25</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -2862,21 +3106,21 @@
       <c r="E34" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="37" t="s">
+      <c r="F34" s="21"/>
+      <c r="G34" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="37" t="s">
+      <c r="H34" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="I34" s="37"/>
-      <c r="J34" s="38"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="37"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
+      <c r="A35" s="12">
         <v>41439</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="18">
         <v>0.29166666666666669</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -2888,21 +3132,21 @@
       <c r="E35" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="37" t="s">
+      <c r="F35" s="21"/>
+      <c r="G35" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="H35" s="37" t="s">
+      <c r="H35" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="I35" s="37"/>
-      <c r="J35" s="38"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="37"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
+      <c r="A36" s="12">
         <v>41439</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="18">
         <v>0.33333333333333331</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -2914,21 +3158,21 @@
       <c r="E36" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="22"/>
-      <c r="G36" s="37" t="s">
+      <c r="F36" s="21"/>
+      <c r="G36" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="H36" s="37" t="s">
+      <c r="H36" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="I36" s="37"/>
-      <c r="J36" s="38"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="37"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="14">
+      <c r="A37" s="13">
         <v>41439</v>
       </c>
-      <c r="B37" s="20">
+      <c r="B37" s="19">
         <v>0.375</v>
       </c>
       <c r="C37" s="8" t="s">
@@ -2940,15 +3184,15 @@
       <c r="E37" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="24"/>
-      <c r="G37" s="39" t="s">
+      <c r="F37" s="23"/>
+      <c r="G37" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="H37" s="39" t="s">
+      <c r="H37" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="I37" s="39"/>
-      <c r="J37" s="40"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2996,10 +3240,10 @@
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="41" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3016,7 +3260,7 @@
       <c r="D3" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="42" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3033,7 +3277,7 @@
       <c r="D4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="43" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3047,7 +3291,7 @@
       <c r="C5">
         <v>5</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E5" t="s">
@@ -3064,7 +3308,7 @@
       <c r="C6">
         <v>6</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="42" t="s">
         <v>35</v>
       </c>
       <c r="E6" t="s">
@@ -3098,7 +3342,7 @@
       <c r="C8" s="5">
         <v>8</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="45" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -3109,10 +3353,10 @@
       <c r="C9">
         <v>9</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="41" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3134,7 +3378,7 @@
       <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="42" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3142,7 +3386,7 @@
       <c r="C12" s="5">
         <v>12</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="43" t="s">
         <v>37</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -3156,7 +3400,7 @@
       <c r="D13" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="44" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3164,10 +3408,10 @@
       <c r="C14">
         <v>14</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="27" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3189,7 +3433,7 @@
       <c r="D16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="45" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3227,13 +3471,13 @@
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="12">
-        <v>20</v>
-      </c>
-      <c r="D20" s="48" t="s">
+      <c r="C20" s="11">
+        <v>20</v>
+      </c>
+      <c r="D20" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="49" t="s">
+      <c r="E20" s="48" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3241,7 +3485,7 @@
       <c r="C21">
         <v>21</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="42" t="s">
         <v>35</v>
       </c>
       <c r="E21" t="s">
@@ -3252,10 +3496,10 @@
       <c r="C22">
         <v>22</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="49" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3277,7 +3521,7 @@
       <c r="D24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="45" t="s">
         <v>36</v>
       </c>
     </row>

--- a/DataGenerator/HYBA-2013Spring-Schedule.xlsx
+++ b/DataGenerator/HYBA-2013Spring-Schedule.xlsx
@@ -229,7 +229,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,6 +281,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -460,6 +466,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -743,7 +755,7 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,7 +1093,7 @@
       <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="67" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -1113,7 +1125,7 @@
         <v>38</v>
       </c>
       <c r="F11" s="21"/>
-      <c r="G11" t="s">
+      <c r="G11" s="65" t="s">
         <v>7</v>
       </c>
       <c r="H11" t="s">
@@ -1218,7 +1230,7 @@
       <c r="B14" s="18">
         <v>0.25</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="68" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="54" t="s">
@@ -1256,7 +1268,7 @@
       <c r="G15" t="s">
         <v>9</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="65" t="s">
         <v>7</v>
       </c>
       <c r="I15" t="s">
@@ -1353,8 +1365,8 @@
       <c r="C18" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="34" t="s">
-        <v>8</v>
+      <c r="D18" s="67" t="s">
+        <v>7</v>
       </c>
       <c r="E18" t="s">
         <v>20</v>
@@ -1385,8 +1397,8 @@
       <c r="G19" t="s">
         <v>12</v>
       </c>
-      <c r="H19" t="s">
-        <v>7</v>
+      <c r="H19" s="65" t="s">
+        <v>8</v>
       </c>
       <c r="I19" t="s">
         <v>21</v>
@@ -1479,7 +1491,7 @@
       <c r="C22" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="67" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="s">
@@ -1579,7 +1591,7 @@
       <c r="G25" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="70" t="s">
         <v>7</v>
       </c>
       <c r="I25" s="5" t="s">
@@ -1694,8 +1706,8 @@
       </c>
       <c r="E29" s="38"/>
       <c r="F29" s="39"/>
-      <c r="G29" s="64" t="s">
-        <v>7</v>
+      <c r="G29" s="66" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>11</v>
@@ -1704,7 +1716,7 @@
         <v>21</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L29" t="s">
         <v>7</v>
@@ -1755,8 +1767,8 @@
       <c r="G31" t="s">
         <v>9</v>
       </c>
-      <c r="H31" t="s">
-        <v>7</v>
+      <c r="H31" s="65" t="s">
+        <v>8</v>
       </c>
       <c r="I31" t="s">
         <v>21</v>
@@ -1810,8 +1822,8 @@
       <c r="B33" s="19">
         <v>0.375</v>
       </c>
-      <c r="C33" s="33" t="s">
-        <v>8</v>
+      <c r="C33" s="66" t="s">
+        <v>7</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>29</v>
@@ -1849,8 +1861,8 @@
       <c r="C34" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>8</v>
+      <c r="D34" s="69" t="s">
+        <v>7</v>
       </c>
       <c r="E34" t="s">
         <v>20</v>

--- a/DataGenerator/HYBA-2013Spring-Schedule.xlsx
+++ b/DataGenerator/HYBA-2013Spring-Schedule.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="55">
   <si>
     <t>Michelotti-Red</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>2v3</t>
+  </si>
+  <si>
+    <t>Centennial-HS</t>
   </si>
 </sst>
 </file>
@@ -755,7 +758,7 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,6 +767,7 @@
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="19.5703125" customWidth="1"/>
     <col min="7" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1241,7 +1245,7 @@
       </c>
       <c r="F14" s="21"/>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="J14" s="21"/>
       <c r="Q14" t="s">
@@ -1272,7 +1276,7 @@
         <v>7</v>
       </c>
       <c r="I15" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="J15" s="21"/>
       <c r="L15" t="s">
@@ -1309,7 +1313,7 @@
         <v>11</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="J16" s="21"/>
       <c r="L16" t="s">
@@ -1343,7 +1347,7 @@
         <v>12</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="J17" s="23" t="s">
         <v>12</v>

--- a/DataGenerator/HYBA-2013Spring-Schedule.xlsx
+++ b/DataGenerator/HYBA-2013Spring-Schedule.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="56">
   <si>
     <t>Michelotti-Red</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>Centennial-HS</t>
+  </si>
+  <si>
+    <t>Long-Reach-HS</t>
   </si>
 </sst>
 </file>
@@ -755,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,7 +1506,7 @@
       </c>
       <c r="F22" s="21"/>
       <c r="I22" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J22" s="21"/>
     </row>
@@ -1531,7 +1534,7 @@
         <v>9</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J23" s="21"/>
       <c r="L23" t="s">
@@ -1565,7 +1568,7 @@
         <v>11</v>
       </c>
       <c r="I24" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J24" s="21"/>
       <c r="L24" t="s">
@@ -1599,7 +1602,7 @@
         <v>7</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J25" s="23" t="s">
         <v>14</v>
@@ -1618,14 +1621,16 @@
       <c r="B26" s="18">
         <v>0.25</v>
       </c>
-      <c r="C26" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="37"/>
+      <c r="C26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="21"/>
       <c r="I26" t="s">
         <v>21</v>
       </c>
@@ -1638,14 +1643,16 @@
       <c r="B27" s="18">
         <v>0.29166666666666669</v>
       </c>
-      <c r="C27" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="37"/>
+      <c r="C27" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="21"/>
       <c r="G27" t="s">
         <v>9</v>
       </c>
@@ -1670,14 +1677,16 @@
       <c r="B28" s="18">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C28" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="36"/>
-      <c r="F28" s="37"/>
+      <c r="C28" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="21"/>
       <c r="G28" t="s">
         <v>13</v>
       </c>
@@ -1702,14 +1711,16 @@
       <c r="B29" s="19">
         <v>0.375</v>
       </c>
-      <c r="C29" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="39"/>
+      <c r="C29" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="23"/>
       <c r="G29" s="66" t="s">
         <v>8</v>
       </c>
@@ -1737,10 +1748,10 @@
         <v>0.25</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="7" t="s">
         <v>26</v>
+      </c>
+      <c r="D30" s="69" t="s">
+        <v>7</v>
       </c>
       <c r="E30" t="s">
         <v>20</v>
@@ -1759,7 +1770,7 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>25</v>
@@ -1792,11 +1803,11 @@
       <c r="B32" s="18">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="E32" t="s">
         <v>20</v>
@@ -1826,16 +1837,18 @@
       <c r="B33" s="19">
         <v>0.375</v>
       </c>
-      <c r="C33" s="66" t="s">
-        <v>7</v>
+      <c r="C33" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="23"/>
+      <c r="F33" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="G33" s="64" t="s">
         <v>14</v>
       </c>
@@ -1854,112 +1867,6 @@
       <c r="M33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
-        <v>41439</v>
-      </c>
-      <c r="B34" s="18">
-        <v>0.25</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H34" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I34" s="36"/>
-      <c r="J34" s="37"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
-        <v>41439</v>
-      </c>
-      <c r="B35" s="18">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H35" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I35" s="36"/>
-      <c r="J35" s="37"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
-        <v>41439</v>
-      </c>
-      <c r="B36" s="18">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I36" s="36"/>
-      <c r="J36" s="37"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="13">
-        <v>41439</v>
-      </c>
-      <c r="B37" s="19">
-        <v>0.375</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="G37" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="H37" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="I37" s="38"/>
-      <c r="J37" s="39"/>
     </row>
   </sheetData>
   <sortState ref="J2:J15">

--- a/DataGenerator/HYBA-2013Spring-Schedule.xlsx
+++ b/DataGenerator/HYBA-2013Spring-Schedule.xlsx
@@ -761,7 +761,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,11 +1628,11 @@
         <v>26</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F26" s="21"/>
       <c r="I26" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J26" s="21"/>
     </row>
@@ -1650,7 +1650,7 @@
         <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" t="s">
@@ -1660,7 +1660,7 @@
         <v>14</v>
       </c>
       <c r="I27" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J27" s="21"/>
       <c r="L27" t="s">
@@ -1684,7 +1684,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" t="s">
@@ -1694,7 +1694,7 @@
         <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J28" s="21"/>
       <c r="L28" t="s">
@@ -1718,7 +1718,7 @@
         <v>29</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="66" t="s">
@@ -1728,7 +1728,7 @@
         <v>11</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J29" s="23" t="s">
         <v>8</v>

--- a/DataGenerator/HYBA-2013Spring-Schedule.xlsx
+++ b/DataGenerator/HYBA-2013Spring-Schedule.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="56">
   <si>
     <t>Michelotti-Red</t>
   </si>
@@ -761,7 +761,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,7 +1720,9 @@
       <c r="E29" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="s">
+        <v>7</v>
+      </c>
       <c r="G29" s="66" t="s">
         <v>8</v>
       </c>
